--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.18.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.18.xlsx
@@ -52,6 +52,9 @@
     <t xml:space="preserve">בוקר אור. </t>
   </si>
   <si>
+    <t>gives-other</t>
+  </si>
+  <si>
     <t>כמה זמן לוקח לכם בשביל לשחרר ילד בן חמש?</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t>זה באמת שום דבר... עדיף לי שהוא ...</t>
   </si>
   <si>
-    <t>gives-other</t>
-  </si>
-  <si>
     <t>בוודאי.</t>
   </si>
   <si>
@@ -226,76 +226,76 @@
     <t>?med</t>
   </si>
   <si>
+    <t>לא. מסדרה של בדיקות. הגלוק...</t>
+  </si>
+  <si>
+    <t>... מכמה בדיקות.</t>
+  </si>
+  <si>
+    <t>נכון.</t>
+  </si>
+  <si>
+    <t>אז תעשו את הבדיקה הזאת עוד פעם.</t>
+  </si>
+  <si>
+    <t>תראה,</t>
+  </si>
+  <si>
+    <t>לא לא לא לא לא.</t>
+  </si>
+  <si>
+    <t>אני אסביר לך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין לי סכרת במשפחה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לאשתי אין סכרת במשפחה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין לנו סכרת במשפחה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">וליואב גם אין סכרת </t>
+  </si>
+  <si>
+    <t>אז אני לא יודע מאיפה כל הדבר הזה מגיע אבל זה לא זה.</t>
+  </si>
+  <si>
+    <t>אז קודם כל לפעמים סכרת מגיעה גם כשהיא לא נמצאת במשפחה, כנראה שזה המקרה. זה דבר ראשון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דבר שני, אין שום שום שום בעיה, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יואב יטופל ויעבור גם בהמשך סידרה של בדיקות  </t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>זאת אומרת זה לא איזשהי הבחנה טרמינאלית הסופית. בעצם זו איזשהי הבחנה שמ... שמתארת את ה... את ה... את המצב שלו ואתם אין לכם שום סיבה לבהלה.</t>
+  </si>
+  <si>
+    <t>זאת אומרת מהרגע שמצאנו את ה... את הגורם הוא יוכל לקבל טיפול תרופתי. תהיה דקירה יומית לא נעימה.</t>
+  </si>
+  <si>
+    <t>לא.</t>
+  </si>
+  <si>
+    <t>הוא יצטרך לקבל...</t>
+  </si>
+  <si>
+    <t>כן,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני מצטער שאני אומר את זה אבל אתה נראה לי פחות או יותר בן גילי. </t>
+  </si>
+  <si>
+    <t>מישהו בכיר ממך ראה את הבדיקה הזאת?</t>
+  </si>
+  <si>
     <t>[?]med</t>
-  </si>
-  <si>
-    <t>לא. מסדרה של בדיקות. הגלוק...</t>
-  </si>
-  <si>
-    <t>... מכמה בדיקות.</t>
-  </si>
-  <si>
-    <t>נכון.</t>
-  </si>
-  <si>
-    <t>אז תעשו את הבדיקה הזאת עוד פעם.</t>
-  </si>
-  <si>
-    <t>תראה,</t>
-  </si>
-  <si>
-    <t>לא לא לא לא לא.</t>
-  </si>
-  <si>
-    <t>אני אסביר לך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אין לי סכרת במשפחה. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לאשתי אין סכרת במשפחה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אין לנו סכרת במשפחה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">וליואב גם אין סכרת </t>
-  </si>
-  <si>
-    <t>אז אני לא יודע מאיפה כל הדבר הזה מגיע אבל זה לא זה.</t>
-  </si>
-  <si>
-    <t>אז קודם כל לפעמים סכרת מגיעה גם כשהיא לא נמצאת במשפחה, כנראה שזה המקרה. זה דבר ראשון.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">דבר שני, אין שום שום שום בעיה, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יואב יטופל ויעבור גם בהמשך סידרה של בדיקות  </t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>זאת אומרת זה לא איזשהי הבחנה טרמינאלית הסופית. בעצם זו איזשהי הבחנה שמ... שמתארת את ה... את ה... את המצב שלו ואתם אין לכם שום סיבה לבהלה.</t>
-  </si>
-  <si>
-    <t>זאת אומרת מהרגע שמצאנו את ה... את הגורם הוא יוכל לקבל טיפול תרופתי. תהיה דקירה יומית לא נעימה.</t>
-  </si>
-  <si>
-    <t>לא.</t>
-  </si>
-  <si>
-    <t>הוא יצטרך לקבל...</t>
-  </si>
-  <si>
-    <t>כן,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני מצטער שאני אומר את זה אבל אתה נראה לי פחות או יותר בן גילי. </t>
-  </si>
-  <si>
-    <t>מישהו בכיר ממך ראה את הבדיקה הזאת?</t>
   </si>
   <si>
     <t xml:space="preserve">כן. בהחלט. במחלקה בהחלט. אנחנו עובדים בצוות במחלקה. </t>
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -836,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -987,7 +987,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1015,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1043,10 +1043,10 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1113,7 +1113,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1127,10 +1127,10 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1141,7 +1141,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1169,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1239,7 +1239,7 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1253,10 +1253,10 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1267,10 +1267,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1295,10 +1295,10 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1309,10 +1309,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1323,7 +1323,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1337,10 +1337,10 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1365,10 +1365,10 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1379,7 +1379,7 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1452,7 +1452,7 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
         <v>85</v>
       </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
         <v>61</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
         <v>93</v>
-      </c>
-      <c r="B73" t="s">
-        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1813,7 +1813,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1841,10 +1841,10 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -1869,7 +1869,7 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -1883,10 +1883,10 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -1897,7 +1897,7 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1942,7 +1942,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1995,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
         <v>61</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -2037,7 +2037,7 @@
         <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2079,7 +2079,7 @@
         <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2093,7 +2093,7 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>61</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -2205,7 +2205,7 @@
         <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2222,7 +2222,7 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2236,7 +2236,7 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2264,7 +2264,7 @@
         <v>61</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -2275,7 +2275,7 @@
         <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2359,10 +2359,10 @@
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -2387,10 +2387,10 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -2401,10 +2401,10 @@
         <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2415,10 +2415,10 @@
         <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -2429,7 +2429,7 @@
         <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2443,7 +2443,7 @@
         <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -2457,7 +2457,7 @@
         <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
